--- a/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B99F3-6617-40DE-BABF-0605B24D9680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154E61C-5C03-4E2F-8A9F-35CE7118AFA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -123,6 +123,9 @@
   <si>
     <t>Merisa Pargan</t>
   </si>
+  <si>
+    <t xml:space="preserve">Recherche zu CRM und Event - Lösungen </t>
+  </si>
 </sst>
 </file>
 
@@ -202,12 +205,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1043,7 +1048,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,7 +2235,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F57</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -10012,8 +10017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10168,13 +10173,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="20">
+        <v>43547</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.6875</v>
+      </c>
       <c r="F13" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10616,7 +10629,7 @@
       <c r="E57" s="28"/>
       <c r="F57">
         <f>SUM(F8:F56)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">

--- a/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154E61C-5C03-4E2F-8A9F-35CE7118AFA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE7B10-07B5-4813-BFC7-F8ADBD1D776F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -112,9 +112,6 @@
     <t xml:space="preserve"> Recherche zu CRM und Event - Lösungen</t>
   </si>
   <si>
-    <t>genauere Recherche zu CRM und Event - Lösungen und Marktrecherche</t>
-  </si>
-  <si>
     <t>Guppen Meeting ( Theambesprechung, Aufgabenaufteilung )</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">Recherche zu CRM und Event - Lösungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">genauere Recherche zu CRM und Event - Lösungen </t>
+  </si>
+  <si>
+    <t>Marktanalyse zu CRM</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2235,7 +2238,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F57</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -2355,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="20">
         <v>43544</v>
@@ -10017,8 +10020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10042,7 +10045,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="14"/>
     </row>
@@ -10083,7 +10086,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20">
         <v>43539</v>
@@ -10156,7 +10159,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" s="20">
         <v>43543</v>
@@ -10174,7 +10177,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="20">
         <v>43547</v>
@@ -10191,13 +10194,20 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20">
+        <v>43550</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F14" s="24">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10629,7 +10639,7 @@
       <c r="E57" s="28"/>
       <c r="F57">
         <f>SUM(F8:F56)</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">

--- a/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE7B10-07B5-4813-BFC7-F8ADBD1D776F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700732C8-D984-42DE-B8B7-35E64371973F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -103,16 +103,7 @@
     <t xml:space="preserve">Einlesen ins Iputpaper, kleine Recherche zum Thema </t>
   </si>
   <si>
-    <t xml:space="preserve">wissenschaftliches Arbeiten Workshop </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recherche zur Projektplanungstools</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Recherche zu CRM und Event - Lösungen</t>
-  </si>
-  <si>
-    <t>Guppen Meeting ( Theambesprechung, Aufgabenaufteilung )</t>
   </si>
   <si>
     <t>Meeting mit Projektpartner</t>
@@ -128,6 +119,12 @@
   </si>
   <si>
     <t>Marktanalyse zu CRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guppen Meeting ( Theambesprechung, Aufgabenaufteilung ) + wissenschaftliches Arbeiten Workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recherche zu CRM und Event - Lösungen &amp; Marktrecherche</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1048,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,10 +1848,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F57" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:F57" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState ref="B7:H57">
-    <sortCondition ref="C6:C57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F55" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:F55" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState ref="B7:H55">
+    <sortCondition ref="C6:C55"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Beschreibung"/>
@@ -2237,8 +2234,8 @@
         <v>6.5</v>
       </c>
       <c r="E4" s="1">
-        <f>Pargan!F57</f>
-        <v>10.5</v>
+        <f>Pargan!F55</f>
+        <v>14.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -2358,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2442,7 +2439,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="20">
         <v>43544</v>
@@ -10020,8 +10017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10045,7 +10042,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="14"/>
     </row>
@@ -10086,7 +10083,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="20">
         <v>43539</v>
@@ -10095,119 +10092,119 @@
         <v>0.5625</v>
       </c>
       <c r="E8" s="21">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F8" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="20">
-        <v>43539</v>
+        <v>43541</v>
       </c>
       <c r="D9" s="21">
-        <v>0.64583333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E9" s="21">
-        <v>0.70833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F9" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="20">
-        <v>43540</v>
+        <v>43543</v>
       </c>
       <c r="D10" s="21">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E10" s="21">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F10" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="20">
-        <v>43541</v>
+        <v>43547</v>
       </c>
       <c r="D11" s="21">
-        <v>0.79166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E11" s="21">
-        <v>0.83333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="F11" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20">
+        <v>43550</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="F12" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="20">
+        <v>43552</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="24">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="20">
-        <v>43543</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="C14" s="20">
+        <v>43553</v>
+      </c>
+      <c r="D14" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F12" s="24">
+      <c r="E14" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F14" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="20">
-        <v>43547</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.6875</v>
-      </c>
-      <c r="F13" s="24">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="20">
-        <v>43550</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.875</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -10261,7 +10258,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -10281,7 +10278,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -10291,7 +10288,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -10301,7 +10298,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -10311,7 +10308,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -10331,7 +10328,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -10345,7 +10342,7 @@
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="24">
+      <c r="F28">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -10355,7 +10352,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="24">
+      <c r="F29">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -10512,7 +10509,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="23"/>
-      <c r="C45" s="20"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45">
@@ -10522,7 +10519,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="23"/>
-      <c r="C46" s="20"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46">
@@ -10532,7 +10529,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47">
@@ -10543,8 +10540,8 @@
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -10563,8 +10560,8 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B50" s="23"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
       <c r="F50">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -10582,7 +10579,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="23"/>
-      <c r="C52" s="25"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52">
@@ -10611,36 +10608,26 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="23"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="B55" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
       <c r="F55">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="23"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <f>SUM(F8:F54)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57">
-        <f>SUM(F8:F56)</f>
-        <v>10.5</v>
-      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B58" s="29"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
@@ -10648,23 +10635,23 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
@@ -10698,7 +10685,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="6"/>
       <c r="D68" s="32"/>
     </row>
@@ -10710,7 +10697,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="33"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="32"/>
     </row>
@@ -10890,7 +10877,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="6"/>
       <c r="D100" s="32"/>
     </row>
@@ -10898,17 +10885,17 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="32"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
-      <c r="B102" s="34"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="32"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
     </row>
@@ -10918,23 +10905,23 @@
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="31"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D106" s="32"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="32"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
@@ -11160,7 +11147,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="6"/>
       <c r="D145" s="32"/>
     </row>
@@ -11168,17 +11155,17 @@
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="32"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
-      <c r="B147" s="34"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="32"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
+      <c r="B148" s="29"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
     </row>
@@ -11188,23 +11175,23 @@
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="31"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D151" s="32"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="31"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="32"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
@@ -11430,7 +11417,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
+      <c r="B190" s="34"/>
       <c r="C190" s="6"/>
       <c r="D190" s="32"/>
     </row>
@@ -11438,17 +11425,17 @@
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
-      <c r="D191" s="32"/>
+      <c r="D191" s="6"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
-      <c r="B192" s="34"/>
+      <c r="B192" s="6"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="32"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
     </row>
@@ -11458,23 +11445,23 @@
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="31"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D196" s="32"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
-      <c r="B197" s="30"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="31"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="32"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
@@ -11676,15 +11663,9 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="32"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="32"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>

--- a/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\ue-ce-2018-phase-2-Qualitätssicherung\IT_Projekt_SS19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC93437-1C35-4290-97DB-EC1E71A88361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEE1B5-7C81-4D96-A611-414BD47C1F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Literaturrecherche, Seminararbeit schreiben</t>
+  </si>
+  <si>
+    <t>Maktrecherche zu CRM niedergeschrieben + Recherche von hochwissenschaftlichen Papers</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1063,7 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,7 +2250,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F55</f>
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -8083,7 +8086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
@@ -10101,8 +10104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10292,13 +10295,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20">
+        <v>43554</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F15" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10700,7 +10711,7 @@
       <c r="E55" s="28"/>
       <c r="F55">
         <f>SUM(F8:F54)</f>
-        <v>14.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">

--- a/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEE1B5-7C81-4D96-A611-414BD47C1F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD83A5D-0F4F-462C-A074-98D47B4E788B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="468" windowWidth="20712" windowHeight="13272" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Maktrecherche zu CRM niedergeschrieben + Recherche von hochwissenschaftlichen Papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marktrechreche zu Eventmanagement tool </t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F55</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -10104,8 +10107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10313,13 +10316,21 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="20">
+        <v>43555</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F16" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -10711,7 +10722,7 @@
       <c r="E55" s="28"/>
       <c r="F55">
         <f>SUM(F8:F54)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">

--- a/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7A825A-AC4D-7449-B74E-917BE2264B63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096AE821-4C13-C644-AA65-6A7EA89C2C25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="24960" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="24960" windowHeight="14520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +304,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -337,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -428,12 +435,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF4B084"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF4B084"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,6 +559,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,7 +1168,7 @@
                   <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.583333366666658</c:v>
+                  <c:v>46.083333366666658</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33.5</c:v>
@@ -2331,7 +2353,7 @@
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
-        <v>45.583333366666658</v>
+        <v>46.083333366666658</v>
       </c>
       <c r="D4" s="1">
         <f>Tomic!F61</f>
@@ -2459,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F20"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2744,10 +2766,10 @@
         <v>43587</v>
       </c>
       <c r="D20" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="21">
         <v>0.625</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0.72916666666666663</v>
       </c>
       <c r="F20" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
@@ -4268,7 +4290,7 @@
   <dimension ref="A2:G229"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:F29"/>
+      <selection activeCell="D29" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4717,14 +4739,14 @@
         <v>43587</v>
       </c>
       <c r="D29" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="21">
         <v>0.625</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0.72916666666666663</v>
       </c>
       <c r="F29" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -5127,7 +5149,7 @@
       <c r="E67" s="42"/>
       <c r="F67" s="42">
         <f>SUBTOTAL(109,Tabelle35[Dauer])</f>
-        <v>45.583333366666658</v>
+        <v>46.083333366666658</v>
       </c>
       <c r="G67"/>
     </row>
@@ -6414,7 +6436,7 @@
   <dimension ref="A2:G237"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F20"/>
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6701,11 +6723,11 @@
       <c r="C20" s="20">
         <v>43587</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="49">
         <v>0.625</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0.72916666666666663</v>
       </c>
       <c r="F20" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
@@ -8536,7 +8558,7 @@
   <dimension ref="A2:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8805,11 +8827,11 @@
       <c r="C19" s="20">
         <v>43587</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="49">
         <v>0.625</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0.72916666666666663</v>
       </c>
       <c r="F19" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
@@ -10640,8 +10662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10909,11 +10931,11 @@
       <c r="C19" s="20">
         <v>43587</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="49">
         <v>0.625</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0.72916666666666663</v>
       </c>
       <c r="F19" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>

--- a/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA63B66-C938-4ED4-8024-B6678BB4688D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDE8AC-6E7E-40B6-91BF-3FC48E056408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="624" yWindow="456" windowWidth="24960" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Szenarien für Entscheidung schreiben weiter + weitere CRM Lösungen angeschaut/analysiert</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Ebtscheidungsfindung</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1191,7 @@
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.5</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F55</f>
-        <v>40.5</v>
+        <v>44.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -2495,7 +2498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
@@ -10684,8 +10687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F20"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11019,13 +11022,21 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="20">
+        <v>43591</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F23" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -11347,7 +11358,7 @@
       <c r="E55" s="28"/>
       <c r="F55">
         <f>SUM(F8:F54)</f>
-        <v>40.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
